--- a/out/CE/FigA_2.xlsx
+++ b/out/CE/FigA_2.xlsx
@@ -382,133 +382,3367 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AF4F9EB-1835-482C-B656-3A4E9990DF98}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:CW11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C11"/>
+      <selection sqref="A1:CW11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>0.82233999999999996</v>
+        <v>0.81706999999999996</v>
       </c>
       <c r="B1">
-        <v>0.80125999999999997</v>
+        <v>0.82826</v>
       </c>
       <c r="C1">
+        <v>0.81891999999999998</v>
+      </c>
+      <c r="D1">
+        <v>0.81742999999999999</v>
+      </c>
+      <c r="E1">
+        <v>0.81655</v>
+      </c>
+      <c r="F1">
+        <v>0.82503000000000004</v>
+      </c>
+      <c r="G1">
+        <v>0.80667999999999995</v>
+      </c>
+      <c r="H1">
+        <v>0.79422999999999999</v>
+      </c>
+      <c r="I1">
+        <v>0.80769999999999997</v>
+      </c>
+      <c r="J1">
+        <v>0.82306999999999997</v>
+      </c>
+      <c r="K1">
+        <v>0.83016000000000001</v>
+      </c>
+      <c r="L1">
         <v>0.81179999999999997</v>
       </c>
+      <c r="M1">
+        <v>0.80520999999999998</v>
+      </c>
+      <c r="N1">
+        <v>0.81011999999999995</v>
+      </c>
+      <c r="O1">
+        <v>0.82330000000000003</v>
+      </c>
+      <c r="P1">
+        <v>0.81660999999999995</v>
+      </c>
+      <c r="Q1">
+        <v>0.83774000000000004</v>
+      </c>
+      <c r="R1">
+        <v>0.80930000000000002</v>
+      </c>
+      <c r="S1">
+        <v>0.82274000000000003</v>
+      </c>
+      <c r="T1">
+        <v>0.81198999999999999</v>
+      </c>
+      <c r="U1">
+        <v>0.81666000000000005</v>
+      </c>
+      <c r="V1">
+        <v>0.82576000000000005</v>
+      </c>
+      <c r="W1">
+        <v>0.82460999999999995</v>
+      </c>
+      <c r="X1">
+        <v>0.80962000000000001</v>
+      </c>
+      <c r="Y1">
+        <v>0.82884000000000002</v>
+      </c>
+      <c r="Z1">
+        <v>0.82576000000000005</v>
+      </c>
+      <c r="AA1">
+        <v>0.82247000000000003</v>
+      </c>
+      <c r="AB1">
+        <v>0.82642000000000004</v>
+      </c>
+      <c r="AC1">
+        <v>0.80523</v>
+      </c>
+      <c r="AD1">
+        <v>0.79615999999999998</v>
+      </c>
+      <c r="AE1">
+        <v>0.78969999999999996</v>
+      </c>
+      <c r="AF1">
+        <v>0.82737000000000005</v>
+      </c>
+      <c r="AG1">
+        <v>0.79918</v>
+      </c>
+      <c r="AH1">
+        <v>0.79891999999999996</v>
+      </c>
+      <c r="AI1">
+        <v>0.81803000000000003</v>
+      </c>
+      <c r="AJ1">
+        <v>0.78888999999999998</v>
+      </c>
+      <c r="AK1">
+        <v>0.82513000000000003</v>
+      </c>
+      <c r="AL1">
+        <v>0.80789999999999995</v>
+      </c>
+      <c r="AM1">
+        <v>0.81116999999999995</v>
+      </c>
+      <c r="AN1">
+        <v>0.81533999999999995</v>
+      </c>
+      <c r="AO1">
+        <v>0.80874000000000001</v>
+      </c>
+      <c r="AP1">
+        <v>0.81781000000000004</v>
+      </c>
+      <c r="AQ1">
+        <v>0.80337999999999998</v>
+      </c>
+      <c r="AR1">
+        <v>0.80969999999999998</v>
+      </c>
+      <c r="AS1">
+        <v>0.82723999999999998</v>
+      </c>
+      <c r="AT1">
+        <v>0.79683999999999999</v>
+      </c>
+      <c r="AU1">
+        <v>0.81259999999999999</v>
+      </c>
+      <c r="AV1">
+        <v>0.81701000000000001</v>
+      </c>
+      <c r="AW1">
+        <v>0.82852000000000003</v>
+      </c>
+      <c r="AX1">
+        <v>0.82494999999999996</v>
+      </c>
+      <c r="AY1">
+        <v>0.82308999999999999</v>
+      </c>
+      <c r="AZ1">
+        <v>0.83789999999999998</v>
+      </c>
+      <c r="BA1">
+        <v>0.78334999999999999</v>
+      </c>
+      <c r="BB1">
+        <v>0.81474999999999997</v>
+      </c>
+      <c r="BC1">
+        <v>0.82498000000000005</v>
+      </c>
+      <c r="BD1">
+        <v>0.83345999999999998</v>
+      </c>
+      <c r="BE1">
+        <v>0.81857999999999997</v>
+      </c>
+      <c r="BF1">
+        <v>0.83438999999999997</v>
+      </c>
+      <c r="BG1">
+        <v>0.80988000000000004</v>
+      </c>
+      <c r="BH1">
+        <v>0.82533999999999996</v>
+      </c>
+      <c r="BI1">
+        <v>0.80818999999999996</v>
+      </c>
+      <c r="BJ1">
+        <v>0.79973000000000005</v>
+      </c>
+      <c r="BK1">
+        <v>0.81218000000000001</v>
+      </c>
+      <c r="BL1">
+        <v>0.79822000000000004</v>
+      </c>
+      <c r="BM1">
+        <v>0.81286999999999998</v>
+      </c>
+      <c r="BN1">
+        <v>0.81733999999999996</v>
+      </c>
+      <c r="BO1">
+        <v>0.81379999999999997</v>
+      </c>
+      <c r="BP1">
+        <v>0.81155999999999995</v>
+      </c>
+      <c r="BQ1">
+        <v>0.79808999999999997</v>
+      </c>
+      <c r="BR1">
+        <v>0.80774000000000001</v>
+      </c>
+      <c r="BS1">
+        <v>0.81211</v>
+      </c>
+      <c r="BT1">
+        <v>0.77066000000000001</v>
+      </c>
+      <c r="BU1">
+        <v>0.79454999999999998</v>
+      </c>
+      <c r="BV1">
+        <v>0.82342000000000004</v>
+      </c>
+      <c r="BW1">
+        <v>0.82367000000000001</v>
+      </c>
+      <c r="BX1">
+        <v>0.83504999999999996</v>
+      </c>
+      <c r="BY1">
+        <v>0.83692999999999995</v>
+      </c>
+      <c r="BZ1">
+        <v>0.82708999999999999</v>
+      </c>
+      <c r="CA1">
+        <v>0.81937000000000004</v>
+      </c>
+      <c r="CB1">
+        <v>0.81871000000000005</v>
+      </c>
+      <c r="CC1">
+        <v>0.81901999999999997</v>
+      </c>
+      <c r="CD1">
+        <v>0.82589999999999997</v>
+      </c>
+      <c r="CE1">
+        <v>0.81084000000000001</v>
+      </c>
+      <c r="CF1">
+        <v>0.80356000000000005</v>
+      </c>
+      <c r="CG1">
+        <v>0.83226</v>
+      </c>
+      <c r="CH1">
+        <v>0.83138000000000001</v>
+      </c>
+      <c r="CI1">
+        <v>0.81188000000000005</v>
+      </c>
+      <c r="CJ1">
+        <v>0.82416</v>
+      </c>
+      <c r="CK1">
+        <v>0.82455999999999996</v>
+      </c>
+      <c r="CL1">
+        <v>0.80703000000000003</v>
+      </c>
+      <c r="CM1">
+        <v>0.81616</v>
+      </c>
+      <c r="CN1">
+        <v>0.78385000000000005</v>
+      </c>
+      <c r="CO1">
+        <v>0.82050999999999996</v>
+      </c>
+      <c r="CP1">
+        <v>0.79608000000000001</v>
+      </c>
+      <c r="CQ1">
+        <v>0.81120000000000003</v>
+      </c>
+      <c r="CR1">
+        <v>0.80001</v>
+      </c>
+      <c r="CS1">
+        <v>0.81074999999999997</v>
+      </c>
+      <c r="CT1">
+        <v>0.80547999999999997</v>
+      </c>
+      <c r="CU1">
+        <v>0.79410999999999998</v>
+      </c>
+      <c r="CV1">
+        <v>0.82411999999999996</v>
+      </c>
+      <c r="CW1">
+        <v>0.81443719999999997</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0.81479000000000001</v>
+        <v>0.80576000000000003</v>
       </c>
       <c r="B2">
-        <v>0.80671999999999999</v>
+        <v>0.81310000000000004</v>
       </c>
       <c r="C2">
-        <v>0.810755</v>
+        <v>0.82513000000000003</v>
+      </c>
+      <c r="D2">
+        <v>0.80886000000000002</v>
+      </c>
+      <c r="E2">
+        <v>0.78505999999999998</v>
+      </c>
+      <c r="F2">
+        <v>0.82835000000000003</v>
+      </c>
+      <c r="G2">
+        <v>0.80332000000000003</v>
+      </c>
+      <c r="H2">
+        <v>0.81440000000000001</v>
+      </c>
+      <c r="I2">
+        <v>0.79757999999999996</v>
+      </c>
+      <c r="J2">
+        <v>0.80515000000000003</v>
+      </c>
+      <c r="K2">
+        <v>0.80955999999999995</v>
+      </c>
+      <c r="L2">
+        <v>0.81211</v>
+      </c>
+      <c r="M2">
+        <v>0.81391999999999998</v>
+      </c>
+      <c r="N2">
+        <v>0.81401000000000001</v>
+      </c>
+      <c r="O2">
+        <v>0.83503000000000005</v>
+      </c>
+      <c r="P2">
+        <v>0.80142999999999998</v>
+      </c>
+      <c r="Q2">
+        <v>0.79632999999999998</v>
+      </c>
+      <c r="R2">
+        <v>0.81433999999999995</v>
+      </c>
+      <c r="S2">
+        <v>0.82225000000000004</v>
+      </c>
+      <c r="T2">
+        <v>0.80662999999999996</v>
+      </c>
+      <c r="U2">
+        <v>0.79708000000000001</v>
+      </c>
+      <c r="V2">
+        <v>0.81420999999999999</v>
+      </c>
+      <c r="W2">
+        <v>0.81786999999999999</v>
+      </c>
+      <c r="X2">
+        <v>0.78564999999999996</v>
+      </c>
+      <c r="Y2">
+        <v>0.80840999999999996</v>
+      </c>
+      <c r="Z2">
+        <v>0.79744000000000004</v>
+      </c>
+      <c r="AA2">
+        <v>0.81752000000000002</v>
+      </c>
+      <c r="AB2">
+        <v>0.78312000000000004</v>
+      </c>
+      <c r="AC2">
+        <v>0.82630000000000003</v>
+      </c>
+      <c r="AD2">
+        <v>0.78691</v>
+      </c>
+      <c r="AE2">
+        <v>0.80571999999999999</v>
+      </c>
+      <c r="AF2">
+        <v>0.82525000000000004</v>
+      </c>
+      <c r="AG2">
+        <v>0.81328</v>
+      </c>
+      <c r="AH2">
+        <v>0.80030999999999997</v>
+      </c>
+      <c r="AI2">
+        <v>0.80208000000000002</v>
+      </c>
+      <c r="AJ2">
+        <v>0.82718000000000003</v>
+      </c>
+      <c r="AK2">
+        <v>0.80715999999999999</v>
+      </c>
+      <c r="AL2">
+        <v>0.82081000000000004</v>
+      </c>
+      <c r="AM2">
+        <v>0.81037999999999999</v>
+      </c>
+      <c r="AN2">
+        <v>0.81557000000000002</v>
+      </c>
+      <c r="AO2">
+        <v>0.80659000000000003</v>
+      </c>
+      <c r="AP2">
+        <v>0.80632000000000004</v>
+      </c>
+      <c r="AQ2">
+        <v>0.79688000000000003</v>
+      </c>
+      <c r="AR2">
+        <v>0.80335999999999996</v>
+      </c>
+      <c r="AS2">
+        <v>0.83242000000000005</v>
+      </c>
+      <c r="AT2">
+        <v>0.81315000000000004</v>
+      </c>
+      <c r="AU2">
+        <v>0.79967999999999995</v>
+      </c>
+      <c r="AV2">
+        <v>0.80362999999999996</v>
+      </c>
+      <c r="AW2">
+        <v>0.81633999999999995</v>
+      </c>
+      <c r="AX2">
+        <v>0.80742999999999998</v>
+      </c>
+      <c r="AY2">
+        <v>0.81315000000000004</v>
+      </c>
+      <c r="AZ2">
+        <v>0.82540999999999998</v>
+      </c>
+      <c r="BA2">
+        <v>0.82387999999999995</v>
+      </c>
+      <c r="BB2">
+        <v>0.80713999999999997</v>
+      </c>
+      <c r="BC2">
+        <v>0.82077999999999995</v>
+      </c>
+      <c r="BD2">
+        <v>0.79730000000000001</v>
+      </c>
+      <c r="BE2">
+        <v>0.80932999999999999</v>
+      </c>
+      <c r="BF2">
+        <v>0.80969000000000002</v>
+      </c>
+      <c r="BG2">
+        <v>0.82071000000000005</v>
+      </c>
+      <c r="BH2">
+        <v>0.80103999999999997</v>
+      </c>
+      <c r="BI2">
+        <v>0.80181000000000002</v>
+      </c>
+      <c r="BJ2">
+        <v>0.80844000000000005</v>
+      </c>
+      <c r="BK2">
+        <v>0.81754000000000004</v>
+      </c>
+      <c r="BL2">
+        <v>0.82155999999999996</v>
+      </c>
+      <c r="BM2">
+        <v>0.80918000000000001</v>
+      </c>
+      <c r="BN2">
+        <v>0.83520000000000005</v>
+      </c>
+      <c r="BO2">
+        <v>0.79388000000000003</v>
+      </c>
+      <c r="BP2">
+        <v>0.83667999999999998</v>
+      </c>
+      <c r="BQ2">
+        <v>0.80950999999999995</v>
+      </c>
+      <c r="BR2">
+        <v>0.78966999999999998</v>
+      </c>
+      <c r="BS2">
+        <v>0.80762999999999996</v>
+      </c>
+      <c r="BT2">
+        <v>0.81172999999999995</v>
+      </c>
+      <c r="BU2">
+        <v>0.82262999999999997</v>
+      </c>
+      <c r="BV2">
+        <v>0.81069999999999998</v>
+      </c>
+      <c r="BW2">
+        <v>0.80008999999999997</v>
+      </c>
+      <c r="BX2">
+        <v>0.81103000000000003</v>
+      </c>
+      <c r="BY2">
+        <v>0.80993999999999999</v>
+      </c>
+      <c r="BZ2">
+        <v>0.79915999999999998</v>
+      </c>
+      <c r="CA2">
+        <v>0.78381000000000001</v>
+      </c>
+      <c r="CB2">
+        <v>0.80652999999999997</v>
+      </c>
+      <c r="CC2">
+        <v>0.82115000000000005</v>
+      </c>
+      <c r="CD2">
+        <v>0.80701000000000001</v>
+      </c>
+      <c r="CE2">
+        <v>0.80628999999999995</v>
+      </c>
+      <c r="CF2">
+        <v>0.80105000000000004</v>
+      </c>
+      <c r="CG2">
+        <v>0.81025000000000003</v>
+      </c>
+      <c r="CH2">
+        <v>0.81774000000000002</v>
+      </c>
+      <c r="CI2">
+        <v>0.81020999999999999</v>
+      </c>
+      <c r="CJ2">
+        <v>0.81906999999999996</v>
+      </c>
+      <c r="CK2">
+        <v>0.79662999999999995</v>
+      </c>
+      <c r="CL2">
+        <v>0.80430000000000001</v>
+      </c>
+      <c r="CM2">
+        <v>0.81794</v>
+      </c>
+      <c r="CN2">
+        <v>0.81738</v>
+      </c>
+      <c r="CO2">
+        <v>0.79825000000000002</v>
+      </c>
+      <c r="CP2">
+        <v>0.82535999999999998</v>
+      </c>
+      <c r="CQ2">
+        <v>0.83047000000000004</v>
+      </c>
+      <c r="CR2">
+        <v>0.81106</v>
+      </c>
+      <c r="CS2">
+        <v>0.82042000000000004</v>
+      </c>
+      <c r="CT2">
+        <v>0.79139000000000004</v>
+      </c>
+      <c r="CU2">
+        <v>0.80762</v>
+      </c>
+      <c r="CV2">
+        <v>0.83499000000000001</v>
+      </c>
+      <c r="CW2">
+        <v>0.81024099999999988</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0.80274000000000001</v>
+        <v>0.79815999999999998</v>
       </c>
       <c r="B3">
+        <v>0.80781000000000003</v>
+      </c>
+      <c r="C3">
+        <v>0.80581999999999998</v>
+      </c>
+      <c r="D3">
+        <v>0.82094999999999996</v>
+      </c>
+      <c r="E3">
+        <v>0.78396999999999994</v>
+      </c>
+      <c r="F3">
+        <v>0.78815000000000002</v>
+      </c>
+      <c r="G3">
+        <v>0.81313000000000002</v>
+      </c>
+      <c r="H3">
+        <v>0.78383000000000003</v>
+      </c>
+      <c r="I3">
+        <v>0.78554000000000002</v>
+      </c>
+      <c r="J3">
+        <v>0.80503000000000002</v>
+      </c>
+      <c r="K3">
+        <v>0.80654000000000003</v>
+      </c>
+      <c r="L3">
+        <v>0.77424999999999999</v>
+      </c>
+      <c r="M3">
+        <v>0.79256000000000004</v>
+      </c>
+      <c r="N3">
+        <v>0.80584999999999996</v>
+      </c>
+      <c r="O3">
+        <v>0.79842000000000002</v>
+      </c>
+      <c r="P3">
+        <v>0.80850999999999995</v>
+      </c>
+      <c r="Q3">
+        <v>0.81403000000000003</v>
+      </c>
+      <c r="R3">
+        <v>0.79262999999999995</v>
+      </c>
+      <c r="S3">
+        <v>0.78656000000000004</v>
+      </c>
+      <c r="T3">
+        <v>0.80012000000000005</v>
+      </c>
+      <c r="U3">
+        <v>0.79112000000000005</v>
+      </c>
+      <c r="V3">
+        <v>0.80117000000000005</v>
+      </c>
+      <c r="W3">
+        <v>0.81608000000000003</v>
+      </c>
+      <c r="X3">
+        <v>0.79322000000000004</v>
+      </c>
+      <c r="Y3">
+        <v>0.79374</v>
+      </c>
+      <c r="Z3">
+        <v>0.79862999999999995</v>
+      </c>
+      <c r="AA3">
+        <v>0.81042000000000003</v>
+      </c>
+      <c r="AB3">
+        <v>0.80715999999999999</v>
+      </c>
+      <c r="AC3">
+        <v>0.80295000000000005</v>
+      </c>
+      <c r="AD3">
+        <v>0.80054000000000003</v>
+      </c>
+      <c r="AE3">
+        <v>0.81469999999999998</v>
+      </c>
+      <c r="AF3">
+        <v>0.82004999999999995</v>
+      </c>
+      <c r="AG3">
+        <v>0.8075</v>
+      </c>
+      <c r="AH3">
+        <v>0.80488000000000004</v>
+      </c>
+      <c r="AI3">
+        <v>0.81430000000000002</v>
+      </c>
+      <c r="AJ3">
+        <v>0.76541999999999999</v>
+      </c>
+      <c r="AK3">
+        <v>0.82357000000000002</v>
+      </c>
+      <c r="AL3">
+        <v>0.80832999999999999</v>
+      </c>
+      <c r="AM3">
+        <v>0.80086999999999997</v>
+      </c>
+      <c r="AN3">
+        <v>0.77676000000000001</v>
+      </c>
+      <c r="AO3">
+        <v>0.80042000000000002</v>
+      </c>
+      <c r="AP3">
+        <v>0.81847999999999999</v>
+      </c>
+      <c r="AQ3">
+        <v>0.79203000000000001</v>
+      </c>
+      <c r="AR3">
+        <v>0.79166999999999998</v>
+      </c>
+      <c r="AS3">
+        <v>0.79305999999999999</v>
+      </c>
+      <c r="AT3">
+        <v>0.80403999999999998</v>
+      </c>
+      <c r="AU3">
+        <v>0.81891999999999998</v>
+      </c>
+      <c r="AV3">
+        <v>0.80442999999999998</v>
+      </c>
+      <c r="AW3">
+        <v>0.78086999999999995</v>
+      </c>
+      <c r="AX3">
+        <v>0.80950999999999995</v>
+      </c>
+      <c r="AY3">
+        <v>0.79191999999999996</v>
+      </c>
+      <c r="AZ3">
+        <v>0.81471000000000005</v>
+      </c>
+      <c r="BA3">
+        <v>0.80218999999999996</v>
+      </c>
+      <c r="BB3">
+        <v>0.80174999999999996</v>
+      </c>
+      <c r="BC3">
+        <v>0.81659000000000004</v>
+      </c>
+      <c r="BD3">
+        <v>0.78234999999999999</v>
+      </c>
+      <c r="BE3">
+        <v>0.78796999999999995</v>
+      </c>
+      <c r="BF3">
+        <v>0.79851000000000005</v>
+      </c>
+      <c r="BG3">
+        <v>0.78810000000000002</v>
+      </c>
+      <c r="BH3">
+        <v>0.81642000000000003</v>
+      </c>
+      <c r="BI3">
+        <v>0.79337999999999997</v>
+      </c>
+      <c r="BJ3">
+        <v>0.79051000000000005</v>
+      </c>
+      <c r="BK3">
+        <v>0.78695000000000004</v>
+      </c>
+      <c r="BL3">
+        <v>0.78473999999999999</v>
+      </c>
+      <c r="BM3">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="BN3">
+        <v>0.77486999999999995</v>
+      </c>
+      <c r="BO3">
+        <v>0.79779999999999995</v>
+      </c>
+      <c r="BP3">
+        <v>0.79296</v>
+      </c>
+      <c r="BQ3">
+        <v>0.81401000000000001</v>
+      </c>
+      <c r="BR3">
+        <v>0.79879999999999995</v>
+      </c>
+      <c r="BS3">
+        <v>0.78434000000000004</v>
+      </c>
+      <c r="BT3">
+        <v>0.81120000000000003</v>
+      </c>
+      <c r="BU3">
+        <v>0.81472</v>
+      </c>
+      <c r="BV3">
+        <v>0.80406</v>
+      </c>
+      <c r="BW3">
+        <v>0.80078000000000005</v>
+      </c>
+      <c r="BX3">
+        <v>0.79995000000000005</v>
+      </c>
+      <c r="BY3">
+        <v>0.7954</v>
+      </c>
+      <c r="BZ3">
+        <v>0.82006999999999997</v>
+      </c>
+      <c r="CA3">
+        <v>0.81115000000000004</v>
+      </c>
+      <c r="CB3">
+        <v>0.81869000000000003</v>
+      </c>
+      <c r="CC3">
+        <v>0.77949000000000002</v>
+      </c>
+      <c r="CD3">
+        <v>0.82691000000000003</v>
+      </c>
+      <c r="CE3">
+        <v>0.78847</v>
+      </c>
+      <c r="CF3">
+        <v>0.81245000000000001</v>
+      </c>
+      <c r="CG3">
+        <v>0.79876000000000003</v>
+      </c>
+      <c r="CH3">
+        <v>0.79991999999999996</v>
+      </c>
+      <c r="CI3">
+        <v>0.81396000000000002</v>
+      </c>
+      <c r="CJ3">
+        <v>0.81708999999999998</v>
+      </c>
+      <c r="CK3">
+        <v>0.80413000000000001</v>
+      </c>
+      <c r="CL3">
+        <v>0.77837000000000001</v>
+      </c>
+      <c r="CM3">
+        <v>0.79603000000000002</v>
+      </c>
+      <c r="CN3">
+        <v>0.79683999999999999</v>
+      </c>
+      <c r="CO3">
+        <v>0.80767999999999995</v>
+      </c>
+      <c r="CP3">
+        <v>0.78217000000000003</v>
+      </c>
+      <c r="CQ3">
+        <v>0.80978000000000006</v>
+      </c>
+      <c r="CR3">
+        <v>0.80961000000000005</v>
+      </c>
+      <c r="CS3">
         <v>0.80786999999999998</v>
       </c>
-      <c r="C3">
-        <v>0.80530499999999994</v>
+      <c r="CT3">
+        <v>0.79208999999999996</v>
+      </c>
+      <c r="CU3">
+        <v>0.78707000000000005</v>
+      </c>
+      <c r="CV3">
+        <v>0.80415999999999999</v>
+      </c>
+      <c r="CW3">
+        <v>0.80029439999999996</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>0.76385999999999998</v>
+        <v>0.81672</v>
       </c>
       <c r="B4">
-        <v>0.81294</v>
+        <v>0.80206</v>
       </c>
       <c r="C4">
-        <v>0.78839999999999999</v>
+        <v>0.79340999999999995</v>
+      </c>
+      <c r="D4">
+        <v>0.80132000000000003</v>
+      </c>
+      <c r="E4">
+        <v>0.79854999999999998</v>
+      </c>
+      <c r="F4">
+        <v>0.79193000000000002</v>
+      </c>
+      <c r="G4">
+        <v>0.77951000000000004</v>
+      </c>
+      <c r="H4">
+        <v>0.80418999999999996</v>
+      </c>
+      <c r="I4">
+        <v>0.79334000000000005</v>
+      </c>
+      <c r="J4">
+        <v>0.77519000000000005</v>
+      </c>
+      <c r="K4">
+        <v>0.77671000000000001</v>
+      </c>
+      <c r="L4">
+        <v>0.78449999999999998</v>
+      </c>
+      <c r="M4">
+        <v>0.79845999999999995</v>
+      </c>
+      <c r="N4">
+        <v>0.79652999999999996</v>
+      </c>
+      <c r="O4">
+        <v>0.81977</v>
+      </c>
+      <c r="P4">
+        <v>0.81516999999999995</v>
+      </c>
+      <c r="Q4">
+        <v>0.81274999999999997</v>
+      </c>
+      <c r="R4">
+        <v>0.80369000000000002</v>
+      </c>
+      <c r="S4">
+        <v>0.79951000000000005</v>
+      </c>
+      <c r="T4">
+        <v>0.81244000000000005</v>
+      </c>
+      <c r="U4">
+        <v>0.80061000000000004</v>
+      </c>
+      <c r="V4">
+        <v>0.80166999999999999</v>
+      </c>
+      <c r="W4">
+        <v>0.82704999999999995</v>
+      </c>
+      <c r="X4">
+        <v>0.80100000000000005</v>
+      </c>
+      <c r="Y4">
+        <v>0.76876999999999995</v>
+      </c>
+      <c r="Z4">
+        <v>0.79334000000000005</v>
+      </c>
+      <c r="AA4">
+        <v>0.77941000000000005</v>
+      </c>
+      <c r="AB4">
+        <v>0.77695000000000003</v>
+      </c>
+      <c r="AC4">
+        <v>0.82028000000000001</v>
+      </c>
+      <c r="AD4">
+        <v>0.79081999999999997</v>
+      </c>
+      <c r="AE4">
+        <v>0.81650999999999996</v>
+      </c>
+      <c r="AF4">
+        <v>0.78264</v>
+      </c>
+      <c r="AG4">
+        <v>0.81759000000000004</v>
+      </c>
+      <c r="AH4">
+        <v>0.78820000000000001</v>
+      </c>
+      <c r="AI4">
+        <v>0.81120999999999999</v>
+      </c>
+      <c r="AJ4">
+        <v>0.78835999999999995</v>
+      </c>
+      <c r="AK4">
+        <v>0.80132000000000003</v>
+      </c>
+      <c r="AL4">
+        <v>0.81211999999999995</v>
+      </c>
+      <c r="AM4">
+        <v>0.80274999999999996</v>
+      </c>
+      <c r="AN4">
+        <v>0.79071000000000002</v>
+      </c>
+      <c r="AO4">
+        <v>0.79910000000000003</v>
+      </c>
+      <c r="AP4">
+        <v>0.79644999999999999</v>
+      </c>
+      <c r="AQ4">
+        <v>0.80472999999999995</v>
+      </c>
+      <c r="AR4">
+        <v>0.81920000000000004</v>
+      </c>
+      <c r="AS4">
+        <v>0.81432000000000004</v>
+      </c>
+      <c r="AT4">
+        <v>0.80271999999999999</v>
+      </c>
+      <c r="AU4">
+        <v>0.77305999999999997</v>
+      </c>
+      <c r="AV4">
+        <v>0.79986000000000002</v>
+      </c>
+      <c r="AW4">
+        <v>0.80008000000000001</v>
+      </c>
+      <c r="AX4">
+        <v>0.78539999999999999</v>
+      </c>
+      <c r="AY4">
+        <v>0.79107000000000005</v>
+      </c>
+      <c r="AZ4">
+        <v>0.80686000000000002</v>
+      </c>
+      <c r="BA4">
+        <v>0.79435999999999996</v>
+      </c>
+      <c r="BB4">
+        <v>0.78996999999999995</v>
+      </c>
+      <c r="BC4">
+        <v>0.81838999999999995</v>
+      </c>
+      <c r="BD4">
+        <v>0.78302000000000005</v>
+      </c>
+      <c r="BE4">
+        <v>0.81152999999999997</v>
+      </c>
+      <c r="BF4">
+        <v>0.76915</v>
+      </c>
+      <c r="BG4">
+        <v>0.80396999999999996</v>
+      </c>
+      <c r="BH4">
+        <v>0.80652999999999997</v>
+      </c>
+      <c r="BI4">
+        <v>0.8044</v>
+      </c>
+      <c r="BJ4">
+        <v>0.80174000000000001</v>
+      </c>
+      <c r="BK4">
+        <v>0.80706</v>
+      </c>
+      <c r="BL4">
+        <v>0.79844000000000004</v>
+      </c>
+      <c r="BM4">
+        <v>0.77981999999999996</v>
+      </c>
+      <c r="BN4">
+        <v>0.76968000000000003</v>
+      </c>
+      <c r="BO4">
+        <v>0.81284999999999996</v>
+      </c>
+      <c r="BP4">
+        <v>0.80462999999999996</v>
+      </c>
+      <c r="BQ4">
+        <v>0.78498000000000001</v>
+      </c>
+      <c r="BR4">
+        <v>0.78003999999999996</v>
+      </c>
+      <c r="BS4">
+        <v>0.80406999999999995</v>
+      </c>
+      <c r="BT4">
+        <v>0.77878999999999998</v>
+      </c>
+      <c r="BU4">
+        <v>0.8014</v>
+      </c>
+      <c r="BV4">
+        <v>0.76439000000000001</v>
+      </c>
+      <c r="BW4">
+        <v>0.80420999999999998</v>
+      </c>
+      <c r="BX4">
+        <v>0.80174999999999996</v>
+      </c>
+      <c r="BY4">
+        <v>0.79808000000000001</v>
+      </c>
+      <c r="BZ4">
+        <v>0.82493000000000005</v>
+      </c>
+      <c r="CA4">
+        <v>0.80735000000000001</v>
+      </c>
+      <c r="CB4">
+        <v>0.79420999999999997</v>
+      </c>
+      <c r="CC4">
+        <v>0.80198000000000003</v>
+      </c>
+      <c r="CD4">
+        <v>0.78281999999999996</v>
+      </c>
+      <c r="CE4">
+        <v>0.81886000000000003</v>
+      </c>
+      <c r="CF4">
+        <v>0.80669999999999997</v>
+      </c>
+      <c r="CG4">
+        <v>0.77556000000000003</v>
+      </c>
+      <c r="CH4">
+        <v>0.80176000000000003</v>
+      </c>
+      <c r="CI4">
+        <v>0.79105999999999999</v>
+      </c>
+      <c r="CJ4">
+        <v>0.78808999999999996</v>
+      </c>
+      <c r="CK4">
+        <v>0.80754999999999999</v>
+      </c>
+      <c r="CL4">
+        <v>0.8</v>
+      </c>
+      <c r="CM4">
+        <v>0.79925000000000002</v>
+      </c>
+      <c r="CN4">
+        <v>0.81291999999999998</v>
+      </c>
+      <c r="CO4">
+        <v>0.82111999999999996</v>
+      </c>
+      <c r="CP4">
+        <v>0.80771999999999999</v>
+      </c>
+      <c r="CQ4">
+        <v>0.81320000000000003</v>
+      </c>
+      <c r="CR4">
+        <v>0.81098999999999999</v>
+      </c>
+      <c r="CS4">
+        <v>0.78239000000000003</v>
+      </c>
+      <c r="CT4">
+        <v>0.79661999999999999</v>
+      </c>
+      <c r="CU4">
+        <v>0.80617000000000005</v>
+      </c>
+      <c r="CV4">
+        <v>0.79118999999999995</v>
+      </c>
+      <c r="CW4">
+        <v>0.79855600000000027</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>0.79403000000000001</v>
+        <v>0.79425999999999997</v>
       </c>
       <c r="B5">
-        <v>0.78108999999999995</v>
+        <v>0.79244000000000003</v>
       </c>
       <c r="C5">
-        <v>0.78756000000000004</v>
+        <v>0.77698</v>
+      </c>
+      <c r="D5">
+        <v>0.78637000000000001</v>
+      </c>
+      <c r="E5">
+        <v>0.77861999999999998</v>
+      </c>
+      <c r="F5">
+        <v>0.77720999999999996</v>
+      </c>
+      <c r="G5">
+        <v>0.81020999999999999</v>
+      </c>
+      <c r="H5">
+        <v>0.78983999999999999</v>
+      </c>
+      <c r="I5">
+        <v>0.80391000000000001</v>
+      </c>
+      <c r="J5">
+        <v>0.76665000000000005</v>
+      </c>
+      <c r="K5">
+        <v>0.78642999999999996</v>
+      </c>
+      <c r="L5">
+        <v>0.77632999999999996</v>
+      </c>
+      <c r="M5">
+        <v>0.77471999999999996</v>
+      </c>
+      <c r="N5">
+        <v>0.80113000000000001</v>
+      </c>
+      <c r="O5">
+        <v>0.77046000000000003</v>
+      </c>
+      <c r="P5">
+        <v>0.77612999999999999</v>
+      </c>
+      <c r="Q5">
+        <v>0.78822999999999999</v>
+      </c>
+      <c r="R5">
+        <v>0.77978999999999998</v>
+      </c>
+      <c r="S5">
+        <v>0.79098999999999997</v>
+      </c>
+      <c r="T5">
+        <v>0.79007000000000005</v>
+      </c>
+      <c r="U5">
+        <v>0.78759000000000001</v>
+      </c>
+      <c r="V5">
+        <v>0.79618999999999995</v>
+      </c>
+      <c r="W5">
+        <v>0.80352000000000001</v>
+      </c>
+      <c r="X5">
+        <v>0.77449999999999997</v>
+      </c>
+      <c r="Y5">
+        <v>0.78456999999999999</v>
+      </c>
+      <c r="Z5">
+        <v>0.81044000000000005</v>
+      </c>
+      <c r="AA5">
+        <v>0.78595999999999999</v>
+      </c>
+      <c r="AB5">
+        <v>0.79718</v>
+      </c>
+      <c r="AC5">
+        <v>0.79764999999999997</v>
+      </c>
+      <c r="AD5">
+        <v>0.79520999999999997</v>
+      </c>
+      <c r="AE5">
+        <v>0.7853</v>
+      </c>
+      <c r="AF5">
+        <v>0.78974999999999995</v>
+      </c>
+      <c r="AG5">
+        <v>0.77585000000000004</v>
+      </c>
+      <c r="AH5">
+        <v>0.78869</v>
+      </c>
+      <c r="AI5">
+        <v>0.77151999999999998</v>
+      </c>
+      <c r="AJ5">
+        <v>0.78920999999999997</v>
+      </c>
+      <c r="AK5">
+        <v>0.79281999999999997</v>
+      </c>
+      <c r="AL5">
+        <v>0.80827000000000004</v>
+      </c>
+      <c r="AM5">
+        <v>0.78141000000000005</v>
+      </c>
+      <c r="AN5">
+        <v>0.76146000000000003</v>
+      </c>
+      <c r="AO5">
+        <v>0.79164000000000001</v>
+      </c>
+      <c r="AP5">
+        <v>0.77139999999999997</v>
+      </c>
+      <c r="AQ5">
+        <v>0.78485000000000005</v>
+      </c>
+      <c r="AR5">
+        <v>0.78532000000000002</v>
+      </c>
+      <c r="AS5">
+        <v>0.78698999999999997</v>
+      </c>
+      <c r="AT5">
+        <v>0.80425000000000002</v>
+      </c>
+      <c r="AU5">
+        <v>0.80674000000000001</v>
+      </c>
+      <c r="AV5">
+        <v>0.81805000000000005</v>
+      </c>
+      <c r="AW5">
+        <v>0.77764999999999995</v>
+      </c>
+      <c r="AX5">
+        <v>0.80103999999999997</v>
+      </c>
+      <c r="AY5">
+        <v>0.77554999999999996</v>
+      </c>
+      <c r="AZ5">
+        <v>0.79803000000000002</v>
+      </c>
+      <c r="BA5">
+        <v>0.79610000000000003</v>
+      </c>
+      <c r="BB5">
+        <v>0.77639999999999998</v>
+      </c>
+      <c r="BC5">
+        <v>0.76558000000000004</v>
+      </c>
+      <c r="BD5">
+        <v>0.7873</v>
+      </c>
+      <c r="BE5">
+        <v>0.77459999999999996</v>
+      </c>
+      <c r="BF5">
+        <v>0.78447</v>
+      </c>
+      <c r="BG5">
+        <v>0.79671999999999998</v>
+      </c>
+      <c r="BH5">
+        <v>0.78198999999999996</v>
+      </c>
+      <c r="BI5">
+        <v>0.78108</v>
+      </c>
+      <c r="BJ5">
+        <v>0.77959000000000001</v>
+      </c>
+      <c r="BK5">
+        <v>0.80201999999999996</v>
+      </c>
+      <c r="BL5">
+        <v>0.80198000000000003</v>
+      </c>
+      <c r="BM5">
+        <v>0.79010000000000002</v>
+      </c>
+      <c r="BN5">
+        <v>0.79047999999999996</v>
+      </c>
+      <c r="BO5">
+        <v>0.79220999999999997</v>
+      </c>
+      <c r="BP5">
+        <v>0.78639999999999999</v>
+      </c>
+      <c r="BQ5">
+        <v>0.81396999999999997</v>
+      </c>
+      <c r="BR5">
+        <v>0.80691000000000002</v>
+      </c>
+      <c r="BS5">
+        <v>0.77875000000000005</v>
+      </c>
+      <c r="BT5">
+        <v>0.80064999999999997</v>
+      </c>
+      <c r="BU5">
+        <v>0.77063000000000004</v>
+      </c>
+      <c r="BV5">
+        <v>0.78025999999999995</v>
+      </c>
+      <c r="BW5">
+        <v>0.79808000000000001</v>
+      </c>
+      <c r="BX5">
+        <v>0.78959999999999997</v>
+      </c>
+      <c r="BY5">
+        <v>0.80325999999999997</v>
+      </c>
+      <c r="BZ5">
+        <v>0.78910999999999998</v>
+      </c>
+      <c r="CA5">
+        <v>0.77839000000000003</v>
+      </c>
+      <c r="CB5">
+        <v>0.79347000000000001</v>
+      </c>
+      <c r="CC5">
+        <v>0.79532000000000003</v>
+      </c>
+      <c r="CD5">
+        <v>0.78356999999999999</v>
+      </c>
+      <c r="CE5">
+        <v>0.78791</v>
+      </c>
+      <c r="CF5">
+        <v>0.78622000000000003</v>
+      </c>
+      <c r="CG5">
+        <v>0.79551000000000005</v>
+      </c>
+      <c r="CH5">
+        <v>0.79608999999999996</v>
+      </c>
+      <c r="CI5">
+        <v>0.79881999999999997</v>
+      </c>
+      <c r="CJ5">
+        <v>0.78322000000000003</v>
+      </c>
+      <c r="CK5">
+        <v>0.79074</v>
+      </c>
+      <c r="CL5">
+        <v>0.76753000000000005</v>
+      </c>
+      <c r="CM5">
+        <v>0.78210999999999997</v>
+      </c>
+      <c r="CN5">
+        <v>0.77481999999999995</v>
+      </c>
+      <c r="CO5">
+        <v>0.79725999999999997</v>
+      </c>
+      <c r="CP5">
+        <v>0.77063000000000004</v>
+      </c>
+      <c r="CQ5">
+        <v>0.79334000000000005</v>
+      </c>
+      <c r="CR5">
+        <v>0.77919000000000005</v>
+      </c>
+      <c r="CS5">
+        <v>0.78805000000000003</v>
+      </c>
+      <c r="CT5">
+        <v>0.79176999999999997</v>
+      </c>
+      <c r="CU5">
+        <v>0.78530999999999995</v>
+      </c>
+      <c r="CV5">
+        <v>0.78422999999999998</v>
+      </c>
+      <c r="CW5">
+        <v>0.78811109999999984</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>0.79110999999999998</v>
+        <v>0.78212999999999999</v>
       </c>
       <c r="B6">
-        <v>0.77554000000000001</v>
+        <v>0.78583000000000003</v>
       </c>
       <c r="C6">
-        <v>0.78332500000000005</v>
+        <v>0.79161000000000004</v>
+      </c>
+      <c r="D6">
+        <v>0.77019000000000004</v>
+      </c>
+      <c r="E6">
+        <v>0.78056000000000003</v>
+      </c>
+      <c r="F6">
+        <v>0.79776000000000002</v>
+      </c>
+      <c r="G6">
+        <v>0.79015999999999997</v>
+      </c>
+      <c r="H6">
+        <v>0.77263999999999999</v>
+      </c>
+      <c r="I6">
+        <v>0.80103000000000002</v>
+      </c>
+      <c r="J6">
+        <v>0.78659000000000001</v>
+      </c>
+      <c r="K6">
+        <v>0.79269999999999996</v>
+      </c>
+      <c r="L6">
+        <v>0.76575000000000004</v>
+      </c>
+      <c r="M6">
+        <v>0.748</v>
+      </c>
+      <c r="N6">
+        <v>0.77193999999999996</v>
+      </c>
+      <c r="O6">
+        <v>0.79105000000000003</v>
+      </c>
+      <c r="P6">
+        <v>0.77768999999999999</v>
+      </c>
+      <c r="Q6">
+        <v>0.77286999999999995</v>
+      </c>
+      <c r="R6">
+        <v>0.78947000000000001</v>
+      </c>
+      <c r="S6">
+        <v>0.78605000000000003</v>
+      </c>
+      <c r="T6">
+        <v>0.80352999999999997</v>
+      </c>
+      <c r="U6">
+        <v>0.78895999999999999</v>
+      </c>
+      <c r="V6">
+        <v>0.78156999999999999</v>
+      </c>
+      <c r="W6">
+        <v>0.79088000000000003</v>
+      </c>
+      <c r="X6">
+        <v>0.79959000000000002</v>
+      </c>
+      <c r="Y6">
+        <v>0.77054</v>
+      </c>
+      <c r="Z6">
+        <v>0.79020000000000001</v>
+      </c>
+      <c r="AA6">
+        <v>0.79405999999999999</v>
+      </c>
+      <c r="AB6">
+        <v>0.80418000000000001</v>
+      </c>
+      <c r="AC6">
+        <v>0.79262999999999995</v>
+      </c>
+      <c r="AD6">
+        <v>0.79883999999999999</v>
+      </c>
+      <c r="AE6">
+        <v>0.78995000000000004</v>
+      </c>
+      <c r="AF6">
+        <v>0.80391000000000001</v>
+      </c>
+      <c r="AG6">
+        <v>0.77232000000000001</v>
+      </c>
+      <c r="AH6">
+        <v>0.76005999999999996</v>
+      </c>
+      <c r="AI6">
+        <v>0.77949999999999997</v>
+      </c>
+      <c r="AJ6">
+        <v>0.76336999999999999</v>
+      </c>
+      <c r="AK6">
+        <v>0.79401999999999995</v>
+      </c>
+      <c r="AL6">
+        <v>0.79191</v>
+      </c>
+      <c r="AM6">
+        <v>0.78569999999999995</v>
+      </c>
+      <c r="AN6">
+        <v>0.76400999999999997</v>
+      </c>
+      <c r="AO6">
+        <v>0.78844999999999998</v>
+      </c>
+      <c r="AP6">
+        <v>0.78446000000000005</v>
+      </c>
+      <c r="AQ6">
+        <v>0.77090000000000003</v>
+      </c>
+      <c r="AR6">
+        <v>0.79207000000000005</v>
+      </c>
+      <c r="AS6">
+        <v>0.78139999999999998</v>
+      </c>
+      <c r="AT6">
+        <v>0.76978999999999997</v>
+      </c>
+      <c r="AU6">
+        <v>0.77422000000000002</v>
+      </c>
+      <c r="AV6">
+        <v>0.79049000000000003</v>
+      </c>
+      <c r="AW6">
+        <v>0.79830999999999996</v>
+      </c>
+      <c r="AX6">
+        <v>0.80015000000000003</v>
+      </c>
+      <c r="AY6">
+        <v>0.80300000000000005</v>
+      </c>
+      <c r="AZ6">
+        <v>0.79452999999999996</v>
+      </c>
+      <c r="BA6">
+        <v>0.80005000000000004</v>
+      </c>
+      <c r="BB6">
+        <v>0.77544999999999997</v>
+      </c>
+      <c r="BC6">
+        <v>0.78808</v>
+      </c>
+      <c r="BD6">
+        <v>0.79327999999999999</v>
+      </c>
+      <c r="BE6">
+        <v>0.76581999999999995</v>
+      </c>
+      <c r="BF6">
+        <v>0.79108999999999996</v>
+      </c>
+      <c r="BG6">
+        <v>0.78795000000000004</v>
+      </c>
+      <c r="BH6">
+        <v>0.80613999999999997</v>
+      </c>
+      <c r="BI6">
+        <v>0.77420999999999995</v>
+      </c>
+      <c r="BJ6">
+        <v>0.78774</v>
+      </c>
+      <c r="BK6">
+        <v>0.78585000000000005</v>
+      </c>
+      <c r="BL6">
+        <v>0.75604000000000005</v>
+      </c>
+      <c r="BM6">
+        <v>0.79471999999999998</v>
+      </c>
+      <c r="BN6">
+        <v>0.79442999999999997</v>
+      </c>
+      <c r="BO6">
+        <v>0.80335000000000001</v>
+      </c>
+      <c r="BP6">
+        <v>0.74578999999999995</v>
+      </c>
+      <c r="BQ6">
+        <v>0.79459000000000002</v>
+      </c>
+      <c r="BR6">
+        <v>0.78774</v>
+      </c>
+      <c r="BS6">
+        <v>0.77761999999999998</v>
+      </c>
+      <c r="BT6">
+        <v>0.80208000000000002</v>
+      </c>
+      <c r="BU6">
+        <v>0.77897000000000005</v>
+      </c>
+      <c r="BV6">
+        <v>0.77678999999999998</v>
+      </c>
+      <c r="BW6">
+        <v>0.79686000000000001</v>
+      </c>
+      <c r="BX6">
+        <v>0.77805000000000002</v>
+      </c>
+      <c r="BY6">
+        <v>0.78369999999999995</v>
+      </c>
+      <c r="BZ6">
+        <v>0.80766000000000004</v>
+      </c>
+      <c r="CA6">
+        <v>0.78210000000000002</v>
+      </c>
+      <c r="CB6">
+        <v>0.79876000000000003</v>
+      </c>
+      <c r="CC6">
+        <v>0.78310000000000002</v>
+      </c>
+      <c r="CD6">
+        <v>0.79278999999999999</v>
+      </c>
+      <c r="CE6">
+        <v>0.77303999999999995</v>
+      </c>
+      <c r="CF6">
+        <v>0.75324999999999998</v>
+      </c>
+      <c r="CG6">
+        <v>0.78561999999999999</v>
+      </c>
+      <c r="CH6">
+        <v>0.78480000000000005</v>
+      </c>
+      <c r="CI6">
+        <v>0.79388999999999998</v>
+      </c>
+      <c r="CJ6">
+        <v>0.76666999999999996</v>
+      </c>
+      <c r="CK6">
+        <v>0.77708999999999995</v>
+      </c>
+      <c r="CL6">
+        <v>0.77683000000000002</v>
+      </c>
+      <c r="CM6">
+        <v>0.82218000000000002</v>
+      </c>
+      <c r="CN6">
+        <v>0.78791999999999995</v>
+      </c>
+      <c r="CO6">
+        <v>0.79410000000000003</v>
+      </c>
+      <c r="CP6">
+        <v>0.78842999999999996</v>
+      </c>
+      <c r="CQ6">
+        <v>0.77481</v>
+      </c>
+      <c r="CR6">
+        <v>0.79427000000000003</v>
+      </c>
+      <c r="CS6">
+        <v>0.75761000000000001</v>
+      </c>
+      <c r="CT6">
+        <v>0.78691999999999995</v>
+      </c>
+      <c r="CU6">
+        <v>0.78849999999999998</v>
+      </c>
+      <c r="CV6">
+        <v>0.78290999999999999</v>
+      </c>
+      <c r="CW6">
+        <v>0.78501159999999981</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>0.76998</v>
+        <v>0.75319999999999998</v>
       </c>
       <c r="B7">
-        <v>0.77980000000000005</v>
+        <v>0.79569999999999996</v>
       </c>
       <c r="C7">
-        <v>0.77489000000000008</v>
+        <v>0.77366999999999997</v>
+      </c>
+      <c r="D7">
+        <v>0.79500999999999999</v>
+      </c>
+      <c r="E7">
+        <v>0.78905999999999998</v>
+      </c>
+      <c r="F7">
+        <v>0.75168000000000001</v>
+      </c>
+      <c r="G7">
+        <v>0.78552999999999995</v>
+      </c>
+      <c r="H7">
+        <v>0.78417000000000003</v>
+      </c>
+      <c r="I7">
+        <v>0.78735999999999995</v>
+      </c>
+      <c r="J7">
+        <v>0.77610999999999997</v>
+      </c>
+      <c r="K7">
+        <v>0.76654999999999995</v>
+      </c>
+      <c r="L7">
+        <v>0.78346000000000005</v>
+      </c>
+      <c r="M7">
+        <v>0.76868000000000003</v>
+      </c>
+      <c r="N7">
+        <v>0.78452999999999995</v>
+      </c>
+      <c r="O7">
+        <v>0.78878000000000004</v>
+      </c>
+      <c r="P7">
+        <v>0.79151000000000005</v>
+      </c>
+      <c r="Q7">
+        <v>0.78008</v>
+      </c>
+      <c r="R7">
+        <v>0.79615999999999998</v>
+      </c>
+      <c r="S7">
+        <v>0.76490000000000002</v>
+      </c>
+      <c r="T7">
+        <v>0.77588000000000001</v>
+      </c>
+      <c r="U7">
+        <v>0.76288999999999996</v>
+      </c>
+      <c r="V7">
+        <v>0.76807999999999998</v>
+      </c>
+      <c r="W7">
+        <v>0.78718999999999995</v>
+      </c>
+      <c r="X7">
+        <v>0.77180000000000004</v>
+      </c>
+      <c r="Y7">
+        <v>0.75683</v>
+      </c>
+      <c r="Z7">
+        <v>0.77246000000000004</v>
+      </c>
+      <c r="AA7">
+        <v>0.75682000000000005</v>
+      </c>
+      <c r="AB7">
+        <v>0.79247999999999996</v>
+      </c>
+      <c r="AC7">
+        <v>0.76712999999999998</v>
+      </c>
+      <c r="AD7">
+        <v>0.80047000000000001</v>
+      </c>
+      <c r="AE7">
+        <v>0.81415999999999999</v>
+      </c>
+      <c r="AF7">
+        <v>0.78259000000000001</v>
+      </c>
+      <c r="AG7">
+        <v>0.76741000000000004</v>
+      </c>
+      <c r="AH7">
+        <v>0.79749999999999999</v>
+      </c>
+      <c r="AI7">
+        <v>0.77134999999999998</v>
+      </c>
+      <c r="AJ7">
+        <v>0.78227000000000002</v>
+      </c>
+      <c r="AK7">
+        <v>0.77827999999999997</v>
+      </c>
+      <c r="AL7">
+        <v>0.78915000000000002</v>
+      </c>
+      <c r="AM7">
+        <v>0.78695999999999999</v>
+      </c>
+      <c r="AN7">
+        <v>0.75968999999999998</v>
+      </c>
+      <c r="AO7">
+        <v>0.76229000000000002</v>
+      </c>
+      <c r="AP7">
+        <v>0.77807999999999999</v>
+      </c>
+      <c r="AQ7">
+        <v>0.78193000000000001</v>
+      </c>
+      <c r="AR7">
+        <v>0.75861999999999996</v>
+      </c>
+      <c r="AS7">
+        <v>0.80715999999999999</v>
+      </c>
+      <c r="AT7">
+        <v>0.76309000000000005</v>
+      </c>
+      <c r="AU7">
+        <v>0.78820000000000001</v>
+      </c>
+      <c r="AV7">
+        <v>0.79193999999999998</v>
+      </c>
+      <c r="AW7">
+        <v>0.76844999999999997</v>
+      </c>
+      <c r="AX7">
+        <v>0.79359999999999997</v>
+      </c>
+      <c r="AY7">
+        <v>0.76822999999999997</v>
+      </c>
+      <c r="AZ7">
+        <v>0.79435</v>
+      </c>
+      <c r="BA7">
+        <v>0.77339999999999998</v>
+      </c>
+      <c r="BB7">
+        <v>0.78900000000000003</v>
+      </c>
+      <c r="BC7">
+        <v>0.78500999999999999</v>
+      </c>
+      <c r="BD7">
+        <v>0.76612000000000002</v>
+      </c>
+      <c r="BE7">
+        <v>0.77110999999999996</v>
+      </c>
+      <c r="BF7">
+        <v>0.77600999999999998</v>
+      </c>
+      <c r="BG7">
+        <v>0.76805000000000001</v>
+      </c>
+      <c r="BH7">
+        <v>0.78195000000000003</v>
+      </c>
+      <c r="BI7">
+        <v>0.79571000000000003</v>
+      </c>
+      <c r="BJ7">
+        <v>0.77819000000000005</v>
+      </c>
+      <c r="BK7">
+        <v>0.7923</v>
+      </c>
+      <c r="BL7">
+        <v>0.79625000000000001</v>
+      </c>
+      <c r="BM7">
+        <v>0.78251000000000004</v>
+      </c>
+      <c r="BN7">
+        <v>0.77380000000000004</v>
+      </c>
+      <c r="BO7">
+        <v>0.77678999999999998</v>
+      </c>
+      <c r="BP7">
+        <v>0.74404999999999999</v>
+      </c>
+      <c r="BQ7">
+        <v>0.77976999999999996</v>
+      </c>
+      <c r="BR7">
+        <v>0.80728</v>
+      </c>
+      <c r="BS7">
+        <v>0.80008999999999997</v>
+      </c>
+      <c r="BT7">
+        <v>0.78757999999999995</v>
+      </c>
+      <c r="BU7">
+        <v>0.75131000000000003</v>
+      </c>
+      <c r="BV7">
+        <v>0.79332999999999998</v>
+      </c>
+      <c r="BW7">
+        <v>0.76700000000000002</v>
+      </c>
+      <c r="BX7">
+        <v>0.77186999999999995</v>
+      </c>
+      <c r="BY7">
+        <v>0.79144000000000003</v>
+      </c>
+      <c r="BZ7">
+        <v>0.79157999999999995</v>
+      </c>
+      <c r="CA7">
+        <v>0.76456000000000002</v>
+      </c>
+      <c r="CB7">
+        <v>0.79532000000000003</v>
+      </c>
+      <c r="CC7">
+        <v>0.74607000000000001</v>
+      </c>
+      <c r="CD7">
+        <v>0.78188999999999997</v>
+      </c>
+      <c r="CE7">
+        <v>0.78188999999999997</v>
+      </c>
+      <c r="CF7">
+        <v>0.76802000000000004</v>
+      </c>
+      <c r="CG7">
+        <v>0.80547999999999997</v>
+      </c>
+      <c r="CH7">
+        <v>0.77788000000000002</v>
+      </c>
+      <c r="CI7">
+        <v>0.80032999999999999</v>
+      </c>
+      <c r="CJ7">
+        <v>0.77109000000000005</v>
+      </c>
+      <c r="CK7">
+        <v>0.78685000000000005</v>
+      </c>
+      <c r="CL7">
+        <v>0.78488999999999998</v>
+      </c>
+      <c r="CM7">
+        <v>0.78425999999999996</v>
+      </c>
+      <c r="CN7">
+        <v>0.78164999999999996</v>
+      </c>
+      <c r="CO7">
+        <v>0.76949000000000001</v>
+      </c>
+      <c r="CP7">
+        <v>0.79144000000000003</v>
+      </c>
+      <c r="CQ7">
+        <v>0.77310999999999996</v>
+      </c>
+      <c r="CR7">
+        <v>0.79147999999999996</v>
+      </c>
+      <c r="CS7">
+        <v>0.78905999999999998</v>
+      </c>
+      <c r="CT7">
+        <v>0.76051000000000002</v>
+      </c>
+      <c r="CU7">
+        <v>0.7782</v>
+      </c>
+      <c r="CV7">
+        <v>0.77346999999999999</v>
+      </c>
+      <c r="CW7">
+        <v>0.77961910000000034</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>0.75827</v>
+        <v>0.77398999999999996</v>
       </c>
       <c r="B8">
-        <v>0.76605000000000001</v>
+        <v>0.75482000000000005</v>
       </c>
       <c r="C8">
-        <v>0.76215999999999995</v>
+        <v>0.77661000000000002</v>
+      </c>
+      <c r="D8">
+        <v>0.77568000000000004</v>
+      </c>
+      <c r="E8">
+        <v>0.78458000000000006</v>
+      </c>
+      <c r="F8">
+        <v>0.76627999999999996</v>
+      </c>
+      <c r="G8">
+        <v>0.75080000000000002</v>
+      </c>
+      <c r="H8">
+        <v>0.76761000000000001</v>
+      </c>
+      <c r="I8">
+        <v>0.76844999999999997</v>
+      </c>
+      <c r="J8">
+        <v>0.77241000000000004</v>
+      </c>
+      <c r="K8">
+        <v>0.77300000000000002</v>
+      </c>
+      <c r="L8">
+        <v>0.77239999999999998</v>
+      </c>
+      <c r="M8">
+        <v>0.78527000000000002</v>
+      </c>
+      <c r="N8">
+        <v>0.77775000000000005</v>
+      </c>
+      <c r="O8">
+        <v>0.76900999999999997</v>
+      </c>
+      <c r="P8">
+        <v>0.77127999999999997</v>
+      </c>
+      <c r="Q8">
+        <v>0.77419000000000004</v>
+      </c>
+      <c r="R8">
+        <v>0.74851000000000001</v>
+      </c>
+      <c r="S8">
+        <v>0.76483999999999996</v>
+      </c>
+      <c r="T8">
+        <v>0.76932999999999996</v>
+      </c>
+      <c r="U8">
+        <v>0.77527000000000001</v>
+      </c>
+      <c r="V8">
+        <v>0.80295000000000005</v>
+      </c>
+      <c r="W8">
+        <v>0.80576000000000003</v>
+      </c>
+      <c r="X8">
+        <v>0.77115</v>
+      </c>
+      <c r="Y8">
+        <v>0.79318999999999995</v>
+      </c>
+      <c r="Z8">
+        <v>0.76815999999999995</v>
+      </c>
+      <c r="AA8">
+        <v>0.75083999999999995</v>
+      </c>
+      <c r="AB8">
+        <v>0.77503999999999995</v>
+      </c>
+      <c r="AC8">
+        <v>0.77814000000000005</v>
+      </c>
+      <c r="AD8">
+        <v>0.76446000000000003</v>
+      </c>
+      <c r="AE8">
+        <v>0.80334000000000005</v>
+      </c>
+      <c r="AF8">
+        <v>0.76580999999999999</v>
+      </c>
+      <c r="AG8">
+        <v>0.73868</v>
+      </c>
+      <c r="AH8">
+        <v>0.77258000000000004</v>
+      </c>
+      <c r="AI8">
+        <v>0.77592000000000005</v>
+      </c>
+      <c r="AJ8">
+        <v>0.76824999999999999</v>
+      </c>
+      <c r="AK8">
+        <v>0.77256000000000002</v>
+      </c>
+      <c r="AL8">
+        <v>0.76554</v>
+      </c>
+      <c r="AM8">
+        <v>0.78481999999999996</v>
+      </c>
+      <c r="AN8">
+        <v>0.74763999999999997</v>
+      </c>
+      <c r="AO8">
+        <v>0.77612000000000003</v>
+      </c>
+      <c r="AP8">
+        <v>0.78788000000000002</v>
+      </c>
+      <c r="AQ8">
+        <v>0.77022000000000002</v>
+      </c>
+      <c r="AR8">
+        <v>0.77846000000000004</v>
+      </c>
+      <c r="AS8">
+        <v>0.78847999999999996</v>
+      </c>
+      <c r="AT8">
+        <v>0.78137999999999996</v>
+      </c>
+      <c r="AU8">
+        <v>0.79890000000000005</v>
+      </c>
+      <c r="AV8">
+        <v>0.76607999999999998</v>
+      </c>
+      <c r="AW8">
+        <v>0.77207999999999999</v>
+      </c>
+      <c r="AX8">
+        <v>0.78810000000000002</v>
+      </c>
+      <c r="AY8">
+        <v>0.77298</v>
+      </c>
+      <c r="AZ8">
+        <v>0.76319000000000004</v>
+      </c>
+      <c r="BA8">
+        <v>0.77849999999999997</v>
+      </c>
+      <c r="BB8">
+        <v>0.77029999999999998</v>
+      </c>
+      <c r="BC8">
+        <v>0.74744999999999995</v>
+      </c>
+      <c r="BD8">
+        <v>0.78522000000000003</v>
+      </c>
+      <c r="BE8">
+        <v>0.76378999999999997</v>
+      </c>
+      <c r="BF8">
+        <v>0.78203999999999996</v>
+      </c>
+      <c r="BG8">
+        <v>0.77117999999999998</v>
+      </c>
+      <c r="BH8">
+        <v>0.76571</v>
+      </c>
+      <c r="BI8">
+        <v>0.75087999999999999</v>
+      </c>
+      <c r="BJ8">
+        <v>0.76378000000000001</v>
+      </c>
+      <c r="BK8">
+        <v>0.75978000000000001</v>
+      </c>
+      <c r="BL8">
+        <v>0.76653000000000004</v>
+      </c>
+      <c r="BM8">
+        <v>0.76712000000000002</v>
+      </c>
+      <c r="BN8">
+        <v>0.76829999999999998</v>
+      </c>
+      <c r="BO8">
+        <v>0.77432000000000001</v>
+      </c>
+      <c r="BP8">
+        <v>0.77829000000000004</v>
+      </c>
+      <c r="BQ8">
+        <v>0.79427000000000003</v>
+      </c>
+      <c r="BR8">
+        <v>0.77654000000000001</v>
+      </c>
+      <c r="BS8">
+        <v>0.77202000000000004</v>
+      </c>
+      <c r="BT8">
+        <v>0.76427</v>
+      </c>
+      <c r="BU8">
+        <v>0.78622000000000003</v>
+      </c>
+      <c r="BV8">
+        <v>0.76393</v>
+      </c>
+      <c r="BW8">
+        <v>0.77863000000000004</v>
+      </c>
+      <c r="BX8">
+        <v>0.76798999999999995</v>
+      </c>
+      <c r="BY8">
+        <v>0.77773999999999999</v>
+      </c>
+      <c r="BZ8">
+        <v>0.79569000000000001</v>
+      </c>
+      <c r="CA8">
+        <v>0.77529999999999999</v>
+      </c>
+      <c r="CB8">
+        <v>0.74861999999999995</v>
+      </c>
+      <c r="CC8">
+        <v>0.77095000000000002</v>
+      </c>
+      <c r="CD8">
+        <v>0.77507000000000004</v>
+      </c>
+      <c r="CE8">
+        <v>0.77771999999999997</v>
+      </c>
+      <c r="CF8">
+        <v>0.76383000000000001</v>
+      </c>
+      <c r="CG8">
+        <v>0.75993999999999995</v>
+      </c>
+      <c r="CH8">
+        <v>0.78073999999999999</v>
+      </c>
+      <c r="CI8">
+        <v>0.76565000000000005</v>
+      </c>
+      <c r="CJ8">
+        <v>0.78115999999999997</v>
+      </c>
+      <c r="CK8">
+        <v>0.77842999999999996</v>
+      </c>
+      <c r="CL8">
+        <v>0.76792000000000005</v>
+      </c>
+      <c r="CM8">
+        <v>0.77332000000000001</v>
+      </c>
+      <c r="CN8">
+        <v>0.77347999999999995</v>
+      </c>
+      <c r="CO8">
+        <v>0.79932000000000003</v>
+      </c>
+      <c r="CP8">
+        <v>0.79300000000000004</v>
+      </c>
+      <c r="CQ8">
+        <v>0.78234999999999999</v>
+      </c>
+      <c r="CR8">
+        <v>0.78603999999999996</v>
+      </c>
+      <c r="CS8">
+        <v>0.77170000000000005</v>
+      </c>
+      <c r="CT8">
+        <v>0.76866000000000001</v>
+      </c>
+      <c r="CU8">
+        <v>0.78171000000000002</v>
+      </c>
+      <c r="CV8">
+        <v>0.78539999999999999</v>
+      </c>
+      <c r="CW8">
+        <v>0.77351579999999986</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>0.77173000000000003</v>
+        <v>0.79654000000000003</v>
       </c>
       <c r="B9">
-        <v>0.78654000000000002</v>
+        <v>0.78700000000000003</v>
       </c>
       <c r="C9">
-        <v>0.77913500000000002</v>
+        <v>0.75856000000000001</v>
+      </c>
+      <c r="D9">
+        <v>0.77634000000000003</v>
+      </c>
+      <c r="E9">
+        <v>0.77441000000000004</v>
+      </c>
+      <c r="F9">
+        <v>0.76193999999999995</v>
+      </c>
+      <c r="G9">
+        <v>0.77041999999999999</v>
+      </c>
+      <c r="H9">
+        <v>0.76021000000000005</v>
+      </c>
+      <c r="I9">
+        <v>0.78042999999999996</v>
+      </c>
+      <c r="J9">
+        <v>0.75417999999999996</v>
+      </c>
+      <c r="K9">
+        <v>0.76085999999999998</v>
+      </c>
+      <c r="L9">
+        <v>0.76232999999999995</v>
+      </c>
+      <c r="M9">
+        <v>0.77195000000000003</v>
+      </c>
+      <c r="N9">
+        <v>0.76531000000000005</v>
+      </c>
+      <c r="O9">
+        <v>0.77717000000000003</v>
+      </c>
+      <c r="P9">
+        <v>0.75412000000000001</v>
+      </c>
+      <c r="Q9">
+        <v>0.78710999999999998</v>
+      </c>
+      <c r="R9">
+        <v>0.77542</v>
+      </c>
+      <c r="S9">
+        <v>0.76546000000000003</v>
+      </c>
+      <c r="T9">
+        <v>0.79386999999999996</v>
+      </c>
+      <c r="U9">
+        <v>0.76846999999999999</v>
+      </c>
+      <c r="V9">
+        <v>0.77688999999999997</v>
+      </c>
+      <c r="W9">
+        <v>0.78441000000000005</v>
+      </c>
+      <c r="X9">
+        <v>0.77708999999999995</v>
+      </c>
+      <c r="Y9">
+        <v>0.78791</v>
+      </c>
+      <c r="Z9">
+        <v>0.75631999999999999</v>
+      </c>
+      <c r="AA9">
+        <v>0.79415000000000002</v>
+      </c>
+      <c r="AB9">
+        <v>0.78956999999999999</v>
+      </c>
+      <c r="AC9">
+        <v>0.77259</v>
+      </c>
+      <c r="AD9">
+        <v>0.77688999999999997</v>
+      </c>
+      <c r="AE9">
+        <v>0.76924000000000003</v>
+      </c>
+      <c r="AF9">
+        <v>0.77832000000000001</v>
+      </c>
+      <c r="AG9">
+        <v>0.78700000000000003</v>
+      </c>
+      <c r="AH9">
+        <v>0.77751000000000003</v>
+      </c>
+      <c r="AI9">
+        <v>0.79074</v>
+      </c>
+      <c r="AJ9">
+        <v>0.76766000000000001</v>
+      </c>
+      <c r="AK9">
+        <v>0.75731999999999999</v>
+      </c>
+      <c r="AL9">
+        <v>0.76573999999999998</v>
+      </c>
+      <c r="AM9">
+        <v>0.77332000000000001</v>
+      </c>
+      <c r="AN9">
+        <v>0.76612999999999998</v>
+      </c>
+      <c r="AO9">
+        <v>0.79635</v>
+      </c>
+      <c r="AP9">
+        <v>0.77209000000000005</v>
+      </c>
+      <c r="AQ9">
+        <v>0.78471999999999997</v>
+      </c>
+      <c r="AR9">
+        <v>0.77134000000000003</v>
+      </c>
+      <c r="AS9">
+        <v>0.78227999999999998</v>
+      </c>
+      <c r="AT9">
+        <v>0.75768000000000002</v>
+      </c>
+      <c r="AU9">
+        <v>0.78798000000000001</v>
+      </c>
+      <c r="AV9">
+        <v>0.79364000000000001</v>
+      </c>
+      <c r="AW9">
+        <v>0.77307999999999999</v>
+      </c>
+      <c r="AX9">
+        <v>0.77890999999999999</v>
+      </c>
+      <c r="AY9">
+        <v>0.74970999999999999</v>
+      </c>
+      <c r="AZ9">
+        <v>0.75178999999999996</v>
+      </c>
+      <c r="BA9">
+        <v>0.75978999999999997</v>
+      </c>
+      <c r="BB9">
+        <v>0.77544000000000002</v>
+      </c>
+      <c r="BC9">
+        <v>0.79930999999999996</v>
+      </c>
+      <c r="BD9">
+        <v>0.78363000000000005</v>
+      </c>
+      <c r="BE9">
+        <v>0.77844999999999998</v>
+      </c>
+      <c r="BF9">
+        <v>0.79705999999999999</v>
+      </c>
+      <c r="BG9">
+        <v>0.77188000000000001</v>
+      </c>
+      <c r="BH9">
+        <v>0.78386999999999996</v>
+      </c>
+      <c r="BI9">
+        <v>0.78227000000000002</v>
+      </c>
+      <c r="BJ9">
+        <v>0.78837000000000002</v>
+      </c>
+      <c r="BK9">
+        <v>0.80027000000000004</v>
+      </c>
+      <c r="BL9">
+        <v>0.77483999999999997</v>
+      </c>
+      <c r="BM9">
+        <v>0.75802000000000003</v>
+      </c>
+      <c r="BN9">
+        <v>0.77483000000000002</v>
+      </c>
+      <c r="BO9">
+        <v>0.75172000000000005</v>
+      </c>
+      <c r="BP9">
+        <v>0.76985999999999999</v>
+      </c>
+      <c r="BQ9">
+        <v>0.77470000000000006</v>
+      </c>
+      <c r="BR9">
+        <v>0.76471999999999996</v>
+      </c>
+      <c r="BS9">
+        <v>0.77575000000000005</v>
+      </c>
+      <c r="BT9">
+        <v>0.76763000000000003</v>
+      </c>
+      <c r="BU9">
+        <v>0.78174999999999994</v>
+      </c>
+      <c r="BV9">
+        <v>0.78156999999999999</v>
+      </c>
+      <c r="BW9">
+        <v>0.77266999999999997</v>
+      </c>
+      <c r="BX9">
+        <v>0.77751999999999999</v>
+      </c>
+      <c r="BY9">
+        <v>0.75870000000000004</v>
+      </c>
+      <c r="BZ9">
+        <v>0.77666000000000002</v>
+      </c>
+      <c r="CA9">
+        <v>0.78215999999999997</v>
+      </c>
+      <c r="CB9">
+        <v>0.76620999999999995</v>
+      </c>
+      <c r="CC9">
+        <v>0.76232</v>
+      </c>
+      <c r="CD9">
+        <v>0.76568000000000003</v>
+      </c>
+      <c r="CE9">
+        <v>0.78359000000000001</v>
+      </c>
+      <c r="CF9">
+        <v>0.76273999999999997</v>
+      </c>
+      <c r="CG9">
+        <v>0.76241000000000003</v>
+      </c>
+      <c r="CH9">
+        <v>0.76815999999999995</v>
+      </c>
+      <c r="CI9">
+        <v>0.75804000000000005</v>
+      </c>
+      <c r="CJ9">
+        <v>0.76837</v>
+      </c>
+      <c r="CK9">
+        <v>0.76270000000000004</v>
+      </c>
+      <c r="CL9">
+        <v>0.75368999999999997</v>
+      </c>
+      <c r="CM9">
+        <v>0.76368000000000003</v>
+      </c>
+      <c r="CN9">
+        <v>0.78356000000000003</v>
+      </c>
+      <c r="CO9">
+        <v>0.77834000000000003</v>
+      </c>
+      <c r="CP9">
+        <v>0.75134000000000001</v>
+      </c>
+      <c r="CQ9">
+        <v>0.75997000000000003</v>
+      </c>
+      <c r="CR9">
+        <v>0.76815</v>
+      </c>
+      <c r="CS9">
+        <v>0.77249999999999996</v>
+      </c>
+      <c r="CT9">
+        <v>0.79015999999999997</v>
+      </c>
+      <c r="CU9">
+        <v>0.76343000000000005</v>
+      </c>
+      <c r="CV9">
+        <v>0.75956000000000001</v>
+      </c>
+      <c r="CW9">
+        <v>0.77318509999999985</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>0.77280000000000004</v>
+        <v>0.76470000000000005</v>
       </c>
       <c r="B10">
-        <v>0.76231000000000004</v>
+        <v>0.77000999999999997</v>
       </c>
       <c r="C10">
-        <v>0.76755499999999999</v>
+        <v>0.75063999999999997</v>
+      </c>
+      <c r="D10">
+        <v>0.75985999999999998</v>
+      </c>
+      <c r="E10">
+        <v>0.75453999999999999</v>
+      </c>
+      <c r="F10">
+        <v>0.78149999999999997</v>
+      </c>
+      <c r="G10">
+        <v>0.76592000000000005</v>
+      </c>
+      <c r="H10">
+        <v>0.75205</v>
+      </c>
+      <c r="I10">
+        <v>0.77595999999999998</v>
+      </c>
+      <c r="J10">
+        <v>0.77997000000000005</v>
+      </c>
+      <c r="K10">
+        <v>0.77790000000000004</v>
+      </c>
+      <c r="L10">
+        <v>0.754</v>
+      </c>
+      <c r="M10">
+        <v>0.77015</v>
+      </c>
+      <c r="N10">
+        <v>0.75690000000000002</v>
+      </c>
+      <c r="O10">
+        <v>0.77758000000000005</v>
+      </c>
+      <c r="P10">
+        <v>0.77590999999999999</v>
+      </c>
+      <c r="Q10">
+        <v>0.76844000000000001</v>
+      </c>
+      <c r="R10">
+        <v>0.76798999999999995</v>
+      </c>
+      <c r="S10">
+        <v>0.75504000000000004</v>
+      </c>
+      <c r="T10">
+        <v>0.75843000000000005</v>
+      </c>
+      <c r="U10">
+        <v>0.77042999999999995</v>
+      </c>
+      <c r="V10">
+        <v>0.74090999999999996</v>
+      </c>
+      <c r="W10">
+        <v>0.74888999999999994</v>
+      </c>
+      <c r="X10">
+        <v>0.75983999999999996</v>
+      </c>
+      <c r="Y10">
+        <v>0.75671999999999995</v>
+      </c>
+      <c r="Z10">
+        <v>0.76963999999999999</v>
+      </c>
+      <c r="AA10">
+        <v>0.77039000000000002</v>
+      </c>
+      <c r="AB10">
+        <v>0.77622000000000002</v>
+      </c>
+      <c r="AC10">
+        <v>0.77903999999999995</v>
+      </c>
+      <c r="AD10">
+        <v>0.76124999999999998</v>
+      </c>
+      <c r="AE10">
+        <v>0.75527999999999995</v>
+      </c>
+      <c r="AF10">
+        <v>0.77519000000000005</v>
+      </c>
+      <c r="AG10">
+        <v>0.76876</v>
+      </c>
+      <c r="AH10">
+        <v>0.77759</v>
+      </c>
+      <c r="AI10">
+        <v>0.77471999999999996</v>
+      </c>
+      <c r="AJ10">
+        <v>0.77812000000000003</v>
+      </c>
+      <c r="AK10">
+        <v>0.74434</v>
+      </c>
+      <c r="AL10">
+        <v>0.75966999999999996</v>
+      </c>
+      <c r="AM10">
+        <v>0.74605999999999995</v>
+      </c>
+      <c r="AN10">
+        <v>0.76629000000000003</v>
+      </c>
+      <c r="AO10">
+        <v>0.78071000000000002</v>
+      </c>
+      <c r="AP10">
+        <v>0.73741000000000001</v>
+      </c>
+      <c r="AQ10">
+        <v>0.76543000000000005</v>
+      </c>
+      <c r="AR10">
+        <v>0.76526000000000005</v>
+      </c>
+      <c r="AS10">
+        <v>0.75629000000000002</v>
+      </c>
+      <c r="AT10">
+        <v>0.74650000000000005</v>
+      </c>
+      <c r="AU10">
+        <v>0.77693000000000001</v>
+      </c>
+      <c r="AV10">
+        <v>0.75971</v>
+      </c>
+      <c r="AW10">
+        <v>0.77156000000000002</v>
+      </c>
+      <c r="AX10">
+        <v>0.78093999999999997</v>
+      </c>
+      <c r="AY10">
+        <v>0.73873</v>
+      </c>
+      <c r="AZ10">
+        <v>0.76154999999999995</v>
+      </c>
+      <c r="BA10">
+        <v>0.76975000000000005</v>
+      </c>
+      <c r="BB10">
+        <v>0.79008999999999996</v>
+      </c>
+      <c r="BC10">
+        <v>0.77454000000000001</v>
+      </c>
+      <c r="BD10">
+        <v>0.76565000000000005</v>
+      </c>
+      <c r="BE10">
+        <v>0.77159999999999995</v>
+      </c>
+      <c r="BF10">
+        <v>0.76898</v>
+      </c>
+      <c r="BG10">
+        <v>0.75190999999999997</v>
+      </c>
+      <c r="BH10">
+        <v>0.76975000000000005</v>
+      </c>
+      <c r="BI10">
+        <v>0.78002000000000005</v>
+      </c>
+      <c r="BJ10">
+        <v>0.74939</v>
+      </c>
+      <c r="BK10">
+        <v>0.78010000000000002</v>
+      </c>
+      <c r="BL10">
+        <v>0.73894000000000004</v>
+      </c>
+      <c r="BM10">
+        <v>0.76024000000000003</v>
+      </c>
+      <c r="BN10">
+        <v>0.79971999999999999</v>
+      </c>
+      <c r="BO10">
+        <v>0.75112000000000001</v>
+      </c>
+      <c r="BP10">
+        <v>0.76798</v>
+      </c>
+      <c r="BQ10">
+        <v>0.79010999999999998</v>
+      </c>
+      <c r="BR10">
+        <v>0.76919000000000004</v>
+      </c>
+      <c r="BS10">
+        <v>0.78308999999999995</v>
+      </c>
+      <c r="BT10">
+        <v>0.74975000000000003</v>
+      </c>
+      <c r="BU10">
+        <v>0.75246999999999997</v>
+      </c>
+      <c r="BV10">
+        <v>0.76983999999999997</v>
+      </c>
+      <c r="BW10">
+        <v>0.77017999999999998</v>
+      </c>
+      <c r="BX10">
+        <v>0.77903999999999995</v>
+      </c>
+      <c r="BY10">
+        <v>0.76276999999999995</v>
+      </c>
+      <c r="BZ10">
+        <v>0.75285999999999997</v>
+      </c>
+      <c r="CA10">
+        <v>0.74795999999999996</v>
+      </c>
+      <c r="CB10">
+        <v>0.76746000000000003</v>
+      </c>
+      <c r="CC10">
+        <v>0.78671000000000002</v>
+      </c>
+      <c r="CD10">
+        <v>0.78525</v>
+      </c>
+      <c r="CE10">
+        <v>0.75780999999999998</v>
+      </c>
+      <c r="CF10">
+        <v>0.74251</v>
+      </c>
+      <c r="CG10">
+        <v>0.78173999999999999</v>
+      </c>
+      <c r="CH10">
+        <v>0.77451999999999999</v>
+      </c>
+      <c r="CI10">
+        <v>0.73607999999999996</v>
+      </c>
+      <c r="CJ10">
+        <v>0.76446000000000003</v>
+      </c>
+      <c r="CK10">
+        <v>0.77446999999999999</v>
+      </c>
+      <c r="CL10">
+        <v>0.76470000000000005</v>
+      </c>
+      <c r="CM10">
+        <v>0.79157</v>
+      </c>
+      <c r="CN10">
+        <v>0.75600000000000001</v>
+      </c>
+      <c r="CO10">
+        <v>0.79246000000000005</v>
+      </c>
+      <c r="CP10">
+        <v>0.75446000000000002</v>
+      </c>
+      <c r="CQ10">
+        <v>0.78339000000000003</v>
+      </c>
+      <c r="CR10">
+        <v>0.76180999999999999</v>
+      </c>
+      <c r="CS10">
+        <v>0.77024999999999999</v>
+      </c>
+      <c r="CT10">
+        <v>0.76458999999999999</v>
+      </c>
+      <c r="CU10">
+        <v>0.75593999999999995</v>
+      </c>
+      <c r="CV10">
+        <v>0.77051999999999998</v>
+      </c>
+      <c r="CW10">
+        <v>0.76591599999999982</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>0.78908</v>
+        <v>0.76778000000000002</v>
       </c>
       <c r="B11">
+        <v>0.77447999999999995</v>
+      </c>
+      <c r="C11">
+        <v>0.75383</v>
+      </c>
+      <c r="D11">
+        <v>0.77364999999999995</v>
+      </c>
+      <c r="E11">
+        <v>0.75712000000000002</v>
+      </c>
+      <c r="F11">
+        <v>0.75534999999999997</v>
+      </c>
+      <c r="G11">
+        <v>0.77856999999999998</v>
+      </c>
+      <c r="H11">
+        <v>0.76346000000000003</v>
+      </c>
+      <c r="I11">
+        <v>0.76837</v>
+      </c>
+      <c r="J11">
+        <v>0.75004000000000004</v>
+      </c>
+      <c r="K11">
+        <v>0.76314000000000004</v>
+      </c>
+      <c r="L11">
+        <v>0.75414999999999999</v>
+      </c>
+      <c r="M11">
+        <v>0.76592000000000005</v>
+      </c>
+      <c r="N11">
+        <v>0.75407999999999997</v>
+      </c>
+      <c r="O11">
+        <v>0.76987000000000005</v>
+      </c>
+      <c r="P11">
+        <v>0.76790000000000003</v>
+      </c>
+      <c r="Q11">
+        <v>0.76312999999999998</v>
+      </c>
+      <c r="R11">
+        <v>0.76149</v>
+      </c>
+      <c r="S11">
+        <v>0.75849</v>
+      </c>
+      <c r="T11">
+        <v>0.75707999999999998</v>
+      </c>
+      <c r="U11">
+        <v>0.77461000000000002</v>
+      </c>
+      <c r="V11">
+        <v>0.77195999999999998</v>
+      </c>
+      <c r="W11">
+        <v>0.74300999999999995</v>
+      </c>
+      <c r="X11">
+        <v>0.75695999999999997</v>
+      </c>
+      <c r="Y11">
+        <v>0.76493</v>
+      </c>
+      <c r="Z11">
+        <v>0.74966999999999995</v>
+      </c>
+      <c r="AA11">
+        <v>0.75436999999999999</v>
+      </c>
+      <c r="AB11">
+        <v>0.74938000000000005</v>
+      </c>
+      <c r="AC11">
+        <v>0.77637999999999996</v>
+      </c>
+      <c r="AD11">
+        <v>0.75800999999999996</v>
+      </c>
+      <c r="AE11">
+        <v>0.76283000000000001</v>
+      </c>
+      <c r="AF11">
+        <v>0.77425999999999995</v>
+      </c>
+      <c r="AG11">
+        <v>0.75582000000000005</v>
+      </c>
+      <c r="AH11">
+        <v>0.76705000000000001</v>
+      </c>
+      <c r="AI11">
+        <v>0.75616000000000005</v>
+      </c>
+      <c r="AJ11">
+        <v>0.73563999999999996</v>
+      </c>
+      <c r="AK11">
+        <v>0.76273999999999997</v>
+      </c>
+      <c r="AL11">
+        <v>0.76071</v>
+      </c>
+      <c r="AM11">
+        <v>0.75980999999999999</v>
+      </c>
+      <c r="AN11">
+        <v>0.75180000000000002</v>
+      </c>
+      <c r="AO11">
+        <v>0.75253999999999999</v>
+      </c>
+      <c r="AP11">
+        <v>0.75671999999999995</v>
+      </c>
+      <c r="AQ11">
+        <v>0.75343000000000004</v>
+      </c>
+      <c r="AR11">
+        <v>0.77132000000000001</v>
+      </c>
+      <c r="AS11">
+        <v>0.74856</v>
+      </c>
+      <c r="AT11">
+        <v>0.76361999999999997</v>
+      </c>
+      <c r="AU11">
+        <v>0.78442999999999996</v>
+      </c>
+      <c r="AV11">
+        <v>0.79593999999999998</v>
+      </c>
+      <c r="AW11">
+        <v>0.7742</v>
+      </c>
+      <c r="AX11">
+        <v>0.75580000000000003</v>
+      </c>
+      <c r="AY11">
+        <v>0.76070000000000004</v>
+      </c>
+      <c r="AZ11">
+        <v>0.79220000000000002</v>
+      </c>
+      <c r="BA11">
+        <v>0.74582999999999999</v>
+      </c>
+      <c r="BB11">
+        <v>0.77151999999999998</v>
+      </c>
+      <c r="BC11">
+        <v>0.75749</v>
+      </c>
+      <c r="BD11">
+        <v>0.75507999999999997</v>
+      </c>
+      <c r="BE11">
+        <v>0.77458000000000005</v>
+      </c>
+      <c r="BF11">
+        <v>0.76041999999999998</v>
+      </c>
+      <c r="BG11">
+        <v>0.76058000000000003</v>
+      </c>
+      <c r="BH11">
+        <v>0.75395999999999996</v>
+      </c>
+      <c r="BI11">
+        <v>0.76470000000000005</v>
+      </c>
+      <c r="BJ11">
+        <v>0.76644999999999996</v>
+      </c>
+      <c r="BK11">
+        <v>0.75451999999999997</v>
+      </c>
+      <c r="BL11">
+        <v>0.77753000000000005</v>
+      </c>
+      <c r="BM11">
+        <v>0.77476999999999996</v>
+      </c>
+      <c r="BN11">
+        <v>0.75638000000000005</v>
+      </c>
+      <c r="BO11">
+        <v>0.77000999999999997</v>
+      </c>
+      <c r="BP11">
+        <v>0.73360000000000003</v>
+      </c>
+      <c r="BQ11">
+        <v>0.74904999999999999</v>
+      </c>
+      <c r="BR11">
+        <v>0.75858999999999999</v>
+      </c>
+      <c r="BS11">
+        <v>0.78012999999999999</v>
+      </c>
+      <c r="BT11">
+        <v>0.75946999999999998</v>
+      </c>
+      <c r="BU11">
+        <v>0.74897999999999998</v>
+      </c>
+      <c r="BV11">
+        <v>0.79378000000000004</v>
+      </c>
+      <c r="BW11">
+        <v>0.74355000000000004</v>
+      </c>
+      <c r="BX11">
+        <v>0.76454999999999995</v>
+      </c>
+      <c r="BY11">
+        <v>0.76365000000000005</v>
+      </c>
+      <c r="BZ11">
+        <v>0.74777000000000005</v>
+      </c>
+      <c r="CA11">
+        <v>0.77951000000000004</v>
+      </c>
+      <c r="CB11">
+        <v>0.77251999999999998</v>
+      </c>
+      <c r="CC11">
+        <v>0.75473999999999997</v>
+      </c>
+      <c r="CD11">
+        <v>0.75136999999999998</v>
+      </c>
+      <c r="CE11">
+        <v>0.75795000000000001</v>
+      </c>
+      <c r="CF11">
+        <v>0.77873000000000003</v>
+      </c>
+      <c r="CG11">
+        <v>0.75788999999999995</v>
+      </c>
+      <c r="CH11">
+        <v>0.74716000000000005</v>
+      </c>
+      <c r="CI11">
+        <v>0.78256999999999999</v>
+      </c>
+      <c r="CJ11">
+        <v>0.77273999999999998</v>
+      </c>
+      <c r="CK11">
+        <v>0.77988999999999997</v>
+      </c>
+      <c r="CL11">
+        <v>0.76717999999999997</v>
+      </c>
+      <c r="CM11">
+        <v>0.78222999999999998</v>
+      </c>
+      <c r="CN11">
+        <v>0.77134000000000003</v>
+      </c>
+      <c r="CO11">
+        <v>0.76593</v>
+      </c>
+      <c r="CP11">
+        <v>0.76427</v>
+      </c>
+      <c r="CQ11">
         <v>0.76415999999999995</v>
       </c>
-      <c r="C11">
-        <v>0.77661999999999998</v>
+      <c r="CR11">
+        <v>0.77671000000000001</v>
+      </c>
+      <c r="CS11">
+        <v>0.77532999999999996</v>
+      </c>
+      <c r="CT11">
+        <v>0.77364999999999995</v>
+      </c>
+      <c r="CU11">
+        <v>0.76061999999999996</v>
+      </c>
+      <c r="CV11">
+        <v>0.78669999999999995</v>
+      </c>
+      <c r="CW11">
+        <v>0.7636358999999997</v>
       </c>
     </row>
   </sheetData>
